--- a/Sprite Tests.xlsx
+++ b/Sprite Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceriturner/Documents/Pokémon Shadows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD342ABC-5C2E-6946-8B78-1E4BBC7A55F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DEE28F-2726-AF4D-9891-E59FE7E33E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32000" yWindow="500" windowWidth="32000" windowHeight="21800" xr2:uid="{EB7B95D6-5B72-AD4E-9645-818617D2624C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="66">
   <si>
     <t>Front</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Linoone (Galar)</t>
+  </si>
+  <si>
+    <t>Scatterbug</t>
+  </si>
+  <si>
+    <t>Spewpa</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D279C89B-FF6E-BC49-97D9-1B3225E203B8}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1751,6 +1757,46 @@
         <v>31</v>
       </c>
       <c r="F58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Sprite Tests.xlsx
+++ b/Sprite Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceriturner/Documents/Pokémon Shadows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DEE28F-2726-AF4D-9891-E59FE7E33E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C795BB3A-73F3-1144-A195-2D73EF92A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32000" yWindow="500" windowWidth="32000" windowHeight="21800" xr2:uid="{EB7B95D6-5B72-AD4E-9645-818617D2624C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="67">
   <si>
     <t>Front</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Spewpa</t>
+  </si>
+  <si>
+    <t>Mega Slowbro</t>
   </si>
 </sst>
 </file>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D279C89B-FF6E-BC49-97D9-1B3225E203B8}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1797,6 +1800,26 @@
         <v>31</v>
       </c>
       <c r="F60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
         <v>31</v>
       </c>
     </row>
